--- a/Skull-projections/Original Datasets/74 supraorb.xlsx
+++ b/Skull-projections/Original Datasets/74 supraorb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\firas\OneDrive\Bureau\HP\Final - Datasets + Code\Original Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/nicolas_van_vlasselaer_vub_be/Documents/Github/exanvub/supraorbital-greateroccipital-nerves/Skull-projections/Original Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606F0130-3AE6-422B-9CAD-D6662ADB1D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{606F0130-3AE6-422B-9CAD-D6662ADB1D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8020DDA2-1240-8944-86F1-6E51710A8AA1}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -650,15 +650,15 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C16" sqref="C16:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -722,7 +722,7 @@
         <v>257.73509999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -754,7 +754,7 @@
         <v>264.24329999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -786,7 +786,7 @@
         <v>294.59320000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -818,7 +818,7 @@
         <v>285.8972</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -829,10 +829,10 @@
         <v>173.42519999999999</v>
       </c>
       <c r="D6">
-        <v>-283.65539999999999</v>
+        <v>-280.65539999999999</v>
       </c>
       <c r="E6">
-        <v>267.7842</v>
+        <v>277.7842</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
@@ -841,16 +841,16 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>163.83670000000001</v>
+        <v>153.83670000000001</v>
       </c>
       <c r="I6">
-        <v>-232.16669999999999</v>
+        <v>-237.16669999999999</v>
       </c>
       <c r="J6">
         <v>285.59620000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>38</v>
       </c>
@@ -882,7 +882,7 @@
         <v>290.88670000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
@@ -914,7 +914,7 @@
         <v>284.78190000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -946,7 +946,7 @@
         <v>282.4085</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
@@ -978,7 +978,7 @@
         <v>277.25900000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -989,10 +989,10 @@
         <v>173.42519999999999</v>
       </c>
       <c r="D11">
-        <v>-283.65539999999999</v>
+        <v>-280.65539999999999</v>
       </c>
       <c r="E11">
-        <v>267.7842</v>
+        <v>277.7842</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
@@ -1001,16 +1001,16 @@
         <v>6</v>
       </c>
       <c r="H11">
-        <v>163.83670000000001</v>
+        <v>153.83670000000001</v>
       </c>
       <c r="I11">
-        <v>-232.16669999999999</v>
+        <v>-237.16669999999999</v>
       </c>
       <c r="J11">
         <v>285.59620000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>39</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>280.35250000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>275.23160000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>265.60910000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>18</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>257.85969999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1149,10 +1149,10 @@
         <v>173.42519999999999</v>
       </c>
       <c r="D16">
-        <v>-283.65539999999999</v>
+        <v>-280.65539999999999</v>
       </c>
       <c r="E16">
-        <v>267.7842</v>
+        <v>277.7842</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>14</v>
@@ -1161,16 +1161,16 @@
         <v>7</v>
       </c>
       <c r="H16">
-        <v>163.83670000000001</v>
+        <v>153.83670000000001</v>
       </c>
       <c r="I16">
-        <v>-232.16669999999999</v>
+        <v>-237.16669999999999</v>
       </c>
       <c r="J16">
         <v>285.59620000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>274.96050000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>260.05369999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>243.4384</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>226.09139999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>270.15429999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>289.53030000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>293.11579999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>291.62880000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>22</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>286.08929999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>267.17610000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>288.47620000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>294.28680000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>34</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>287.45999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>282.45479999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>36</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>273.91550000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>262.03500000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>37</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>251.7183</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>31</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>247.57400000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>255.57560000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>30</v>
       </c>
